--- a/Estimaciones y resultados/Resumen/TV BVAR (4) FH/FINDEX/Estimaciones.xlsx
+++ b/Estimaciones y resultados/Resumen/TV BVAR (4) FH/FINDEX/Estimaciones.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="282" documentId="8_{6F48EE23-C148-4E42-826B-5D1D98901154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8140D6F-9C2F-4F5B-B8BF-2AA403396A9D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{EC8FECFF-BFDA-4F05-BA98-3A5D94AA6909}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{EC8FECFF-BFDA-4F05-BA98-3A5D94AA6909}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation info" sheetId="1" r:id="rId1"/>
@@ -1085,6 +1085,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,12 +1101,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -16751,7 +16751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A56C996-9CD6-479F-BA33-9314741DF917}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -17988,7 +17988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D587C340-2AC7-41A7-B98C-CF7C6D15DE1F}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -19267,15 +19267,15 @@
       </c>
     </row>
     <row r="3" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
       <c r="R3" t="s">
         <v>82</v>
       </c>
@@ -19288,15 +19288,15 @@
       <c r="U3" t="s">
         <v>85</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
     </row>
     <row r="4" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -19373,18 +19373,18 @@
         <v>85</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="22" t="str">
+      <c r="J5" s="24" t="str">
         <f>C4</f>
         <v>BZSCORE</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="22" t="str">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="24" t="str">
         <f>C40</f>
         <v>CONSUM</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
       <c r="Q5" t="s">
         <v>97</v>
       </c>
@@ -19401,18 +19401,18 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="W5" s="7"/>
-      <c r="X5" s="22" t="str">
+      <c r="X5" s="24" t="str">
         <f>C4</f>
         <v>BZSCORE</v>
       </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="22" t="str">
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="24" t="str">
         <f>C40</f>
         <v>CONSUM</v>
       </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
@@ -19760,18 +19760,18 @@
     </row>
     <row r="10" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I10" s="10"/>
-      <c r="J10" s="24" t="str">
+      <c r="J10" s="20" t="str">
         <f>C16</f>
         <v>BANKCON</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="24" t="str">
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="20" t="str">
         <f>C52</f>
         <v>INVEST</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
       <c r="Q10" t="s">
         <v>102</v>
       </c>
@@ -19788,18 +19788,18 @@
         <v>0.28699999999999998</v>
       </c>
       <c r="W10" s="10"/>
-      <c r="X10" s="24" t="str">
+      <c r="X10" s="20" t="str">
         <f>C16</f>
         <v>BANKCON</v>
       </c>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="24" t="str">
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="20" t="str">
         <f>C52</f>
         <v>INVEST</v>
       </c>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -20117,18 +20117,18 @@
     </row>
     <row r="15" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I15" s="10"/>
-      <c r="J15" s="24" t="str">
+      <c r="J15" s="20" t="str">
         <f>C28</f>
         <v>IPC</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="24" t="str">
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="20" t="str">
         <f>C64</f>
         <v>PBI</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
       <c r="Q15" t="s">
         <v>111</v>
       </c>
@@ -20145,18 +20145,18 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="W15" s="10"/>
-      <c r="X15" s="24" t="str">
+      <c r="X15" s="20" t="str">
         <f>C28</f>
         <v>IPC</v>
       </c>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="24" t="str">
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="20" t="str">
         <f>C64</f>
         <v>PBI</v>
       </c>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
